--- a/unit_1/Feature Inventory.xlsx
+++ b/unit_1/Feature Inventory.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0932918-B46D-4D7E-879F-BAFF88ACDE65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3509B94-C069-4D1B-92CC-889F75E0C049}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Feature</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>On the second page of the document, explain what you did (e.g. feature inventory, recap of products in market place overall) and why you did it. Take an additional 2-4 sentences to outline insights you discovered from you feature inventory. Highlight features that seem particularly important for your design. Use screenshots to support in your feature inventory report.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/PetTech-Premium-Training-Collar-Waterproof/dp/B01DUWWZ9S</t>
   </si>
 </sst>
 </file>
@@ -356,21 +359,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>

--- a/unit_1/Feature Inventory.xlsx
+++ b/unit_1/Feature Inventory.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3509B94-C069-4D1B-92CC-889F75E0C049}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FFA84C-3C9E-476B-B64E-5AFE70D66953}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>On the second page of the document, explain what you did (e.g. feature inventory, recap of products in market place overall) and why you did it. Take an additional 2-4 sentences to outline insights you discovered from you feature inventory. Highlight features that seem particularly important for your design. Use screenshots to support in your feature inventory report.</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/PetTech-Premium-Training-Collar-Waterproof/dp/B01DUWWZ9S</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+  <si>
+    <t>PetTech</t>
+  </si>
+  <si>
+    <t>Link AKC</t>
+  </si>
+  <si>
+    <t>Whistle</t>
+  </si>
+  <si>
+    <t>Nuzzle</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Cellular</t>
+  </si>
+  <si>
+    <t>Monthly Fee</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Temp. Monitor</t>
+  </si>
+  <si>
+    <t>Removable Battery</t>
+  </si>
+  <si>
+    <t>Geofencing</t>
+  </si>
+  <si>
+    <t>Waterproof</t>
+  </si>
+  <si>
+    <t>Activity Monitor</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Light/Sound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,10 +90,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="Georgia"/>
-      <family val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,16 +148,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,31 +450,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="4" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="3"/>
+    <col min="7" max="7" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M6" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{4B84CE19-8745-455D-B34C-4FDFB27E5E82}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{68E639BB-910C-49B0-A897-D540B27D4C97}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{2BB60727-B1BF-4AFF-8282-9B0C0E8A36C4}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{69B38A70-84ED-4AE0-93D7-25D992ADEAB4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -392,20 +694,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="69.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>